--- a/data/tehilim-data/49.xlsx
+++ b/data/tehilim-data/49.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="298">
   <si>
     <t>original</t>
   </si>
@@ -25,19 +25,19 @@
     <t>לַמְנַצֵּחַ</t>
   </si>
   <si>
-    <t>Начальнику хора</t>
+    <t>Руководителю хора</t>
   </si>
   <si>
     <t>לִבְנֵי־קֹרַח</t>
   </si>
   <si>
-    <t>сыновей Кореевых</t>
+    <t>сыновей Кораха</t>
   </si>
   <si>
     <t>מִזְמוֹר</t>
   </si>
   <si>
-    <t>псалом</t>
+    <t>песнопение</t>
   </si>
   <si>
     <t>ב</t>
@@ -166,43 +166,43 @@
     <t>תְּבוּנוֹת</t>
   </si>
   <si>
-    <t>разум</t>
+    <t>понимания</t>
   </si>
   <si>
     <t>ה</t>
   </si>
   <si>
-    <t>אַטֶּה</t>
-  </si>
-  <si>
-    <t>наклоню</t>
-  </si>
-  <si>
-    <t>לְמָשָׁל</t>
+    <t>אטה</t>
+  </si>
+  <si>
+    <t>я наклоню</t>
+  </si>
+  <si>
+    <t>למשל</t>
   </si>
   <si>
     <t>к притче</t>
   </si>
   <si>
-    <t>אָזְנִי</t>
+    <t>אזני</t>
   </si>
   <si>
     <t>ухо мое</t>
   </si>
   <si>
-    <t>אֶפְתַּח</t>
-  </si>
-  <si>
-    <t>открою</t>
-  </si>
-  <si>
-    <t>בְּכִנּוֹר</t>
+    <t>אפתה</t>
+  </si>
+  <si>
+    <t>я открою</t>
+  </si>
+  <si>
+    <t>בכינור</t>
   </si>
   <si>
     <t>на арфе</t>
   </si>
   <si>
-    <t>חִידָתִי</t>
+    <t>חידתי</t>
   </si>
   <si>
     <t>загадку мою</t>
@@ -220,7 +220,7 @@
     <t>אִירָא</t>
   </si>
   <si>
-    <t>убоюсь</t>
+    <t>я боюсь</t>
   </si>
   <si>
     <t>בִּימֵי</t>
@@ -733,10 +733,13 @@
     <t>אִישׁ</t>
   </si>
   <si>
-    <t>כִּי־יִרְבֶּה</t>
-  </si>
-  <si>
-    <t>когда умножается</t>
+    <t xml:space="preserve">когда </t>
+  </si>
+  <si>
+    <t>יִרְבֶּה</t>
+  </si>
+  <si>
+    <t>умножается</t>
   </si>
   <si>
     <t>כְבוֹד</t>
@@ -908,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -929,6 +932,14 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -956,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -983,6 +994,15 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1490,55 +1510,55 @@
       <c r="C32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="2"/>
@@ -2499,244 +2519,244 @@
     </row>
     <row r="145">
       <c r="A145" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="8" t="s">
+      <c r="B148" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B148" s="8">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="8">
         <v>18.0</v>
-      </c>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="6" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="6" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="6" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="6" t="s">
-        <v>96</v>
+        <v>252</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="6" t="s">
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B158" s="8">
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B159" s="8">
         <v>19.0</v>
-      </c>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B162" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="8" t="s">
+      <c r="B166" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B166" s="8">
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" s="8">
         <v>20.0</v>
-      </c>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B168" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B171" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C171" s="2"/>
     </row>
@@ -2745,34 +2765,34 @@
         <v>281</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="8" t="s">
+      <c r="B174" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B174" s="8">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B175" s="8">
         <v>21.0</v>
-      </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="C175" s="2"/>
     </row>
@@ -2781,7 +2801,7 @@
         <v>287</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C176" s="2"/>
     </row>
@@ -2790,34 +2810,34 @@
         <v>288</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="C177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="C178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="C179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C180" s="2"/>
     </row>
@@ -2826,114 +2846,123 @@
         <v>295</v>
       </c>
       <c r="B181" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="9"/>
+      <c r="B182" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="9"/>
+      <c r="A183" s="12"/>
     </row>
     <row r="184">
-      <c r="A184" s="9"/>
+      <c r="A184" s="12"/>
     </row>
     <row r="185">
-      <c r="A185" s="9"/>
+      <c r="A185" s="12"/>
     </row>
     <row r="186">
-      <c r="A186" s="9"/>
+      <c r="A186" s="12"/>
     </row>
     <row r="187">
-      <c r="A187" s="9"/>
+      <c r="A187" s="12"/>
     </row>
     <row r="188">
-      <c r="A188" s="9"/>
+      <c r="A188" s="12"/>
     </row>
     <row r="189">
-      <c r="A189" s="9"/>
+      <c r="A189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="9"/>
+      <c r="A190" s="12"/>
     </row>
     <row r="191">
-      <c r="A191" s="9"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="9"/>
+      <c r="A191" s="12"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="12"/>
     </row>
     <row r="194">
-      <c r="A194" s="9"/>
+      <c r="A194" s="12"/>
     </row>
     <row r="195">
-      <c r="A195" s="9"/>
+      <c r="A195" s="12"/>
     </row>
     <row r="196">
-      <c r="A196" s="9"/>
+      <c r="A196" s="12"/>
     </row>
     <row r="197">
-      <c r="A197" s="9"/>
+      <c r="A197" s="12"/>
     </row>
     <row r="198">
-      <c r="A198" s="9"/>
+      <c r="A198" s="12"/>
     </row>
     <row r="199">
-      <c r="A199" s="9"/>
+      <c r="A199" s="12"/>
     </row>
     <row r="200">
-      <c r="A200" s="9"/>
+      <c r="A200" s="12"/>
     </row>
     <row r="201">
-      <c r="A201" s="9"/>
+      <c r="A201" s="12"/>
     </row>
     <row r="202">
-      <c r="A202" s="9"/>
+      <c r="A202" s="12"/>
     </row>
     <row r="203">
-      <c r="A203" s="9"/>
+      <c r="A203" s="12"/>
     </row>
     <row r="204">
-      <c r="A204" s="9"/>
+      <c r="A204" s="12"/>
     </row>
     <row r="205">
-      <c r="A205" s="9"/>
+      <c r="A205" s="12"/>
     </row>
     <row r="206">
-      <c r="A206" s="9"/>
+      <c r="A206" s="12"/>
     </row>
     <row r="207">
-      <c r="A207" s="9"/>
+      <c r="A207" s="12"/>
     </row>
     <row r="208">
-      <c r="A208" s="9"/>
+      <c r="A208" s="12"/>
     </row>
     <row r="209">
-      <c r="A209" s="9"/>
+      <c r="A209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="9"/>
+      <c r="A210" s="12"/>
     </row>
     <row r="211">
-      <c r="A211" s="9"/>
+      <c r="A211" s="12"/>
     </row>
     <row r="212">
-      <c r="A212" s="9"/>
+      <c r="A212" s="12"/>
     </row>
     <row r="213">
-      <c r="A213" s="9"/>
+      <c r="A213" s="12"/>
     </row>
     <row r="214">
-      <c r="A214" s="9"/>
+      <c r="A214" s="12"/>
     </row>
     <row r="215">
-      <c r="A215" s="9"/>
+      <c r="A215" s="12"/>
     </row>
     <row r="216">
-      <c r="A216" s="9"/>
+      <c r="A216" s="12"/>
     </row>
     <row r="217">
-      <c r="A217" s="9"/>
+      <c r="A217" s="12"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
